--- a/analysis/era1.xlsx
+++ b/analysis/era1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avab/School/Sophomore Year/HNRS-398/HNRS-398-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3988982-868D-DF48-9850-D5254951E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2609F6B-9955-7146-959D-B55E84C63497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CF2E7445-58B8-1E47-9E6A-FE4515726607}"/>
+    <workbookView xWindow="2400" yWindow="540" windowWidth="28800" windowHeight="16340" xr2:uid="{CF2E7445-58B8-1E47-9E6A-FE4515726607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>state</t>
   </si>
@@ -260,14 +260,17 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>U.S.</t>
+    <t>info_employment_1996</t>
+  </si>
+  <si>
+    <t>info_employment_2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +289,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111827"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -309,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +330,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,15 +665,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741A0D21-0608-634B-99E9-BF9C53B4EA51}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="25" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,8 +746,14 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -804,8 +823,14 @@
       <c r="W2" s="3">
         <v>4467634</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="5">
+        <v>33237</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>36125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -875,8 +900,14 @@
       <c r="W3" s="3">
         <v>633714</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="5">
+        <v>4672</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -946,8 +977,14 @@
       <c r="W4" s="3">
         <v>5273477</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="5">
+        <v>40235</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>59085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,8 +1054,14 @@
       <c r="W5" s="3">
         <v>2691571</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="5">
+        <v>20389</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>24360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1131,14 @@
       <c r="W6" s="3">
         <v>34479458</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="5">
+        <v>405370</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>556074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1208,14 @@
       <c r="W7" s="3">
         <v>4425687</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="5">
+        <v>69007</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>119642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1230,8 +1285,14 @@
       <c r="W8" s="3">
         <v>3432835</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="5">
+        <v>43923</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>50728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1301,8 +1362,14 @@
       <c r="W9" s="3">
         <v>795699</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="5">
+        <v>5561</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1368,8 +1435,14 @@
       <c r="W10" s="3">
         <v>574504</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="5">
+        <v>20705</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>23298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1439,8 +1512,14 @@
       <c r="W11" s="3">
         <v>16356966</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="5">
+        <v>141490</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>187020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1510,8 +1589,14 @@
       <c r="W12" s="3">
         <v>8377038</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="5">
+        <v>108047</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>146271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1581,8 +1666,14 @@
       <c r="W13" s="3">
         <v>1225948</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="5">
+        <v>9378</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1652,8 +1743,14 @@
       <c r="W14" s="3">
         <v>1319962</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="5">
+        <v>8777</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>12452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1723,8 +1820,14 @@
       <c r="W15" s="3">
         <v>12488445</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="5">
+        <v>125353</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>147684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1794,8 +1897,14 @@
       <c r="W16" s="3">
         <v>6127760</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="5">
+        <v>47280</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>49394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1865,8 +1974,14 @@
       <c r="W17" s="3">
         <v>2931997</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="5">
+        <v>31656</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1936,8 +2051,14 @@
       <c r="W18" s="3">
         <v>2702162</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="5">
+        <v>30855</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>46857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2007,8 +2128,14 @@
       <c r="W19" s="3">
         <v>4068132</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="5">
+        <v>26385</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>31116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2078,8 +2205,14 @@
       <c r="W20" s="3">
         <v>4477875</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="5">
+        <v>25293</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>31181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2149,8 +2282,14 @@
       <c r="W21" s="3">
         <v>1285692</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="5">
+        <v>9413</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>12115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2220,8 +2359,14 @@
       <c r="W22" s="3">
         <v>5374691</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="5">
+        <v>54482</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>72232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2291,8 +2436,14 @@
       <c r="W23" s="3">
         <v>6397634</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="5">
+        <v>103985</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>137939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2362,8 +2513,14 @@
       <c r="W24" s="3">
         <v>9991120</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="5">
+        <v>88150</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>101086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2433,8 +2590,14 @@
       <c r="W25" s="3">
         <v>4982796</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="5">
+        <v>56416</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>70510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2504,8 +2667,14 @@
       <c r="W26" s="3">
         <v>2852994</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="5">
+        <v>13946</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>17640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2575,8 +2744,14 @@
       <c r="W27" s="3">
         <v>5641142</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="5">
+        <v>71709</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>86073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2646,8 +2821,14 @@
       <c r="W28" s="3">
         <v>906961</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="5">
+        <v>6455</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2717,8 +2898,14 @@
       <c r="W29" s="3">
         <v>1719836</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="5">
+        <v>25870</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>26417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -2788,8 +2975,14 @@
       <c r="W30" s="3">
         <v>2098399</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="5">
+        <v>9892</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>21174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -2859,8 +3052,14 @@
       <c r="W31" s="3">
         <v>1255517</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="5">
+        <v>11925</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>15468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2930,8 +3129,14 @@
       <c r="W32" s="3">
         <v>8492671</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="5">
+        <v>116864</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>122299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -3001,8 +3206,14 @@
       <c r="W33" s="3">
         <v>1831690</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="5">
+        <v>11751</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>15763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -3072,8 +3283,14 @@
       <c r="W34" s="3">
         <v>19082838</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="5">
+        <v>259596</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>307699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -3143,8 +3360,14 @@
       <c r="W35" s="3">
         <v>8210122</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="5">
+        <v>58405</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>81817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
@@ -3214,8 +3437,14 @@
       <c r="W36" s="3">
         <v>639062</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="5">
+        <v>6195</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3285,8 +3514,14 @@
       <c r="W37" s="3">
         <v>11387404</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="5">
+        <v>103230</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>115124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3356,8 +3591,14 @@
       <c r="W38" s="3">
         <v>3467100</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="5">
+        <v>25039</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>36870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3427,8 +3668,14 @@
       <c r="W39" s="3">
         <v>3467937</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="5">
+        <v>27398</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>37968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3745,14 @@
       <c r="W40" s="3">
         <v>12298970</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="5">
+        <v>111075</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>142171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3569,8 +3822,14 @@
       <c r="W41" s="3">
         <v>1057142</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="5">
+        <v>10345</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -3640,8 +3899,14 @@
       <c r="W42" s="3">
         <v>4064995</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="5">
+        <v>23027</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>30602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -3711,8 +3976,14 @@
       <c r="W43" s="3">
         <v>757972</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="5">
+        <v>5932</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -3782,8 +4053,14 @@
       <c r="W44" s="3">
         <v>5750789</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="5">
+        <v>41122</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>54014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -3853,8 +4130,14 @@
       <c r="W45" s="3">
         <v>21319622</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="5">
+        <v>199114</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>282047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -3924,8 +4207,14 @@
       <c r="W46" s="3">
         <v>2283715</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="5">
+        <v>22803</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>31718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -3995,8 +4284,14 @@
       <c r="W47" s="3">
         <v>612223</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="5">
+        <v>6300</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>7657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -4066,8 +4361,14 @@
       <c r="W48" s="3">
         <v>7198362</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="5">
+        <v>86044</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>145412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
@@ -4137,8 +4438,14 @@
       <c r="W49" s="3">
         <v>5985722</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="5">
+        <v>59791</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>88203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -4208,8 +4515,14 @@
       <c r="W50" s="3">
         <v>1801481</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="5">
+        <v>12511</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>13965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -4279,8 +4592,14 @@
       <c r="W51" s="3">
         <v>5406835</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="5">
+        <v>46060</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>54250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -4350,77 +4669,37 @@
       <c r="W52" s="3">
         <v>494657</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="4">
-        <v>10500000000</v>
-      </c>
-      <c r="C53" s="3">
-        <v>61107</v>
-      </c>
-      <c r="D53" s="3">
-        <v>416571</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1161592</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1802878</v>
-      </c>
-      <c r="G53" s="4">
-        <v>47800000000</v>
-      </c>
-      <c r="H53" s="3">
-        <v>92825</v>
-      </c>
-      <c r="I53" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="J53" s="3">
-        <v>7631022</v>
-      </c>
-      <c r="K53" s="3">
-        <v>28771.38</v>
-      </c>
-      <c r="L53" s="4">
-        <v>265000000</v>
-      </c>
-      <c r="M53" s="4">
-        <v>37600000000</v>
-      </c>
-      <c r="N53" s="3">
-        <v>87610</v>
-      </c>
-      <c r="O53" s="3">
-        <v>408275</v>
-      </c>
-      <c r="P53" s="3">
-        <v>1241100</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>228849</v>
-      </c>
-      <c r="R53" s="4">
-        <v>67500000000</v>
-      </c>
-      <c r="S53" s="3">
-        <v>149625</v>
-      </c>
-      <c r="T53" s="4">
-        <v>114000000</v>
-      </c>
-      <c r="U53" s="3">
-        <v>10581929</v>
-      </c>
-      <c r="V53" s="3">
-        <v>37133.620000000003</v>
-      </c>
-      <c r="W53" s="4">
-        <v>285000000</v>
-      </c>
+      <c r="X52" s="5">
+        <v>3444</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
